--- a/testSubjects.xlsx
+++ b/testSubjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vyacheslav\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237D6F7-5ACA-4EAA-A99D-3CC7AF23C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A130EB73-8A4E-4CDF-BCAA-B805842F1A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16B750C6-0DFA-4FEA-974F-C18FA2945A24}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Агасиев Максим Артурович</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>32.13.0000</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +704,9 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
